--- a/Atividades/Project View/Especificações de Progeto view.xlsx
+++ b/Atividades/Project View/Especificações de Progeto view.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="19995" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="15480" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -558,8 +558,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -719,6 +719,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -797,6 +802,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -831,6 +837,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -1006,14 +1013,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.5" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" style="2" customWidth="1"/>
@@ -1024,7 +1031,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="14" customFormat="1" ht="22.5" customHeight="1">
+    <row r="1" spans="1:6" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>35</v>
       </c>
@@ -1034,7 +1041,7 @@
       <c r="E1" s="19"/>
       <c r="F1" s="19"/>
     </row>
-    <row r="2" spans="1:6" ht="22.5" customHeight="1">
+    <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -1042,7 +1049,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" ht="22.5" customHeight="1">
+    <row r="3" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1062,7 +1069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="22.5" customHeight="1">
+    <row r="4" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1078,9 +1085,11 @@
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" ht="22.5" customHeight="1">
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1098,7 +1107,7 @@
       </c>
       <c r="F5" s="11"/>
     </row>
-    <row r="6" spans="1:6" ht="22.5" customHeight="1">
+    <row r="6" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1116,7 +1125,7 @@
       </c>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:6" ht="22.5" customHeight="1">
+    <row r="7" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1136,7 +1145,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="22.5" customHeight="1">
+    <row r="8" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1154,7 +1163,7 @@
       </c>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:6" ht="22.5" customHeight="1">
+    <row r="9" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1174,7 +1183,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="22.5" customHeight="1">
+    <row r="10" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1192,7 +1201,7 @@
       </c>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:6" ht="22.5" customHeight="1">
+    <row r="11" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -1210,7 +1219,7 @@
       </c>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="1:6" ht="22.5" customHeight="1">
+    <row r="12" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -1228,7 +1237,7 @@
       </c>
       <c r="F12" s="11"/>
     </row>
-    <row r="13" spans="1:6" ht="22.5" customHeight="1">
+    <row r="13" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1248,7 +1257,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="22.5" customHeight="1">
+    <row r="14" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -1266,7 +1275,7 @@
       </c>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="1:6" ht="22.5" customHeight="1">
+    <row r="15" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -1286,7 +1295,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="22.5" customHeight="1">
+    <row r="16" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -1304,7 +1313,7 @@
       </c>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="1:6" ht="22.5" customHeight="1">
+    <row r="17" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1322,7 +1331,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="22.5" customHeight="1">
+    <row r="18" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1342,7 +1351,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="18" customFormat="1" ht="28.5" customHeight="1">
+    <row r="19" spans="1:6" s="18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -1362,24 +1371,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Atividades/Project View/Especificações de Progeto view.xlsx
+++ b/Atividades/Project View/Especificações de Progeto view.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="15480" windowHeight="7935"/>
@@ -1016,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1100,7 +1100,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>

--- a/Atividades/Project View/Especificações de Progeto view.xlsx
+++ b/Atividades/Project View/Especificações de Progeto view.xlsx
@@ -1017,7 +1017,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1118,7 +1118,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>

--- a/Atividades/Project View/Especificações de Progeto view.xlsx
+++ b/Atividades/Project View/Especificações de Progeto view.xlsx
@@ -1156,7 +1156,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
